--- a/src/analysis_examples/circadb/results_jtk/cosinor_10357535_pfkfb2_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10357535_pfkfb2_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2694685259101741, 0.3814675955449809]</t>
+          <t>[0.26910163110761687, 0.38183449034753814]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6.375855399198826e-11</v>
+        <v>7.192713091797032e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>6.375855399198826e-11</v>
+        <v>7.192713091797032e-11</v>
       </c>
       <c r="O2" t="n">
         <v>-0.5660527303765397</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.38241091664029114, 0.4407385392974593]</t>
+          <t>[0.3823917947235854, 0.44075766121416504]</t>
         </is>
       </c>
       <c r="U2" t="n">
